--- a/2018August/13/18Q2 Main Changes.xlsx
+++ b/2018August/13/18Q2 Main Changes.xlsx
@@ -3,12 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A107687-B9F4-465F-A134-1CBDDF114B0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{271A1F44-B01A-403C-AC44-886A45861288}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="turn_restriction" sheetId="1" r:id="rId1"/>
+    <sheet name="turn_restriction 15%" sheetId="1" r:id="rId1"/>
+    <sheet name="safety_camera 20%" sheetId="2" r:id="rId2"/>
+    <sheet name="leisure" sheetId="4" r:id="rId3"/>
+    <sheet name="barrier" sheetId="5" r:id="rId4"/>
+    <sheet name="tmcid" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -53,8 +57,230 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{D6669F98-73F2-4372-A5B4-D51ECA77CFFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT tags-&gt;'cam_type', COUNT(1) FROM nodes WHERE tags-&gt;'type'='safety_camera_node' GROUP BY tags-&gt;'cam_type';</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{18AB39D4-2CB7-4E8D-B0C6-C0686522C68F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT rf_type, COUNT(1)  FROM roadfurniture WHERE rf_type IN (4,5,28,29,90,91,95) GROUP BY rf_type ORDER BY rf_type;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0098ED03-AE25-4A56-88B8-0D5DCA2874B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT COUNT(1) FROM relations WHERE tags-&gt;'leisure'='park' LIMIT 1;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{4ED277D8-1B38-4AA0-88DA-60069A37AEFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT COUNT(1) FROM relations WHERE tags-&gt;'leisure'='state_park' LIMIT 1;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{76A4EC29-8190-4D72-AFA1-CFBF787A23AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT fa_type, COUNT(1) FROM facilityarea WHERE fa_type IN ('3310', '3320') GROUP BY fa_type;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{49AA061D-0441-463A-BE2C-92B0EDE67D08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ SELECT tags-&gt;'barrier', COUNT(1)  FROM relations WHERE tags-&gt;'type'='barrier' GROUP BY tags-&gt;'barrier';</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{11D53540-BC76-4CBF-9F9B-AB2369D858FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT block_type, SUM(rule_cnt) FROM roadnodemaat WHERE block_type IN (21,22,23,24) GROUP BY block_type;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{3BEAEFF4-BDF9-4328-B5AE-D60CF72833AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT block_type, SUM(rule_cnt) FROM roadnodemaat WHERE block_type IN (21,22,23,24) GROUP BY block_type;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>18Q1 UNIDB</t>
   </si>
@@ -72,13 +298,106 @@
   </si>
   <si>
     <t>18Q2 UNIDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speed                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SectionStart         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InformationGathering </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BusLane              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RedLightAndSpeed     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SectionEnd           </t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>18Q2 AXF(rf_type)</t>
+  </si>
+  <si>
+    <t>TeleNav Camera Type</t>
+  </si>
+  <si>
+    <t>AutoNavi Camera Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SectionStart        </t>
+  </si>
+  <si>
+    <t>InformationGathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusLane             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedLightAndSpeed    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SectionEnd          </t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>state_park</t>
+  </si>
+  <si>
+    <t>AXF fa_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gate      </t>
+  </si>
+  <si>
+    <t>toll_booth</t>
+  </si>
+  <si>
+    <t>gate type(block_type)</t>
+  </si>
+  <si>
+    <t>18Q2 gate</t>
+  </si>
+  <si>
+    <t>21 (刷卡进入门禁)</t>
+  </si>
+  <si>
+    <t>22 (授权进入门禁)</t>
+  </si>
+  <si>
+    <t>23 (收费进入门禁)</t>
+  </si>
+  <si>
+    <t>24 (紧急通道门禁)</t>
+  </si>
+  <si>
+    <t>17Q4</t>
+  </si>
+  <si>
+    <t>18Q1</t>
+  </si>
+  <si>
+    <t>18Q2</t>
+  </si>
+  <si>
+    <t>ways:tmcid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +426,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF212121"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,11 +466,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,13 +754,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -529,4 +871,586 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D956130-F322-4406-BC79-455A5BBC5F77}">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B8)</f>
+        <v>1684348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>190691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>149658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>67805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1265284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B12:B17)</f>
+        <v>2022324</v>
+      </c>
+      <c r="C11" s="2">
+        <f>(B11-B2)/B2</f>
+        <v>0.20065687138287339</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F12:F17)</f>
+        <v>2022324</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>249001</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:C17" si="0">(B12-B3)/B3</f>
+        <v>0.30578265361238866</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>249001</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>6461</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16121495327102803</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1469370</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>177710</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18744069812505848</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>177710</v>
+      </c>
+      <c r="J14">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>113602</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67542216650689479</v>
+      </c>
+      <c r="E15">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>113602</v>
+      </c>
+      <c r="J15">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1469370</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16129659428239035</v>
+      </c>
+      <c r="E16">
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <v>6461</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>6180</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15600448933782268</v>
+      </c>
+      <c r="E17">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>6180</v>
+      </c>
+      <c r="J17">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5D78BA-5B4F-4BD2-85EA-2EC827550D0F}">
+  <dimension ref="A3:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>10723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>14824</v>
+      </c>
+      <c r="C9" s="2">
+        <f>(B9-B4)/B4</f>
+        <v>0.3824489415275576</v>
+      </c>
+      <c r="F9">
+        <v>3320</v>
+      </c>
+      <c r="G9">
+        <v>14824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>12531</v>
+      </c>
+      <c r="C10" s="2">
+        <f>(B10-B5)/B5</f>
+        <v>0.22456757549105835</v>
+      </c>
+      <c r="F10">
+        <v>3310</v>
+      </c>
+      <c r="G10">
+        <v>12531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49693A1C-6E87-49C8-A324-B14493D2831B}">
+  <dimension ref="A4:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B5:B6)</f>
+        <v>295692</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <f>SUM(I5:I8)</f>
+        <v>273067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>273067</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>22625</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>261539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B11:B12)</f>
+        <v>462528</v>
+      </c>
+      <c r="C10" s="2">
+        <f>(B10-B4)/B4</f>
+        <v>0.56422223124061521</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I11:I14)</f>
+        <v>439704</v>
+      </c>
+      <c r="J10" s="2">
+        <f>(I10-I4)/I4</f>
+        <v>0.61024217499734501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>439704</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:C12" si="0">(B11-B5)/B5</f>
+        <v>0.61024217499734501</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>468</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:J14" si="1">(I11-I5)/I5</f>
+        <v>-0.89361218458740621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>22824</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7955801104972371E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>432841</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65497688681229183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>1257</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1121039805036556E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>5138</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.12885723974228552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE385A-D178-4CDA-A0C2-E7DFDEFAE07E}">
+  <dimension ref="A3:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>783760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>810107</v>
+      </c>
+      <c r="C14" s="2">
+        <f>(B14-B4)/B4</f>
+        <v>3.3616158007553333E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2018August/13/18Q2 Main Changes.xlsx
+++ b/2018August/13/18Q2 Main Changes.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{271A1F44-B01A-403C-AC44-886A45861288}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40187771-E4D3-482A-AE3E-24BE6F3BFC46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,10 +14,15 @@
     <sheet name="barrier" sheetId="5" r:id="rId4"/>
     <sheet name="tmcid" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -755,7 +760,7 @@
   <dimension ref="A4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,7 +883,7 @@
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1132,7 +1137,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,7 +1222,7 @@
   <dimension ref="A4:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
